--- a/数据整理/stocks/A股/创业板/300383-光环新网.xlsx
+++ b/数据整理/stocks/A股/创业板/300383-光环新网.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>99.29</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.52</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>515400</t>
+          <t>166027</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国中证大数据产业ETF</t>
+          <t>中欧创业板两年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>98.90</t>
+          <t>24.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>96.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1110</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -594,26 +634,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161628</t>
+          <t>009791</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通中证云计算与大数据主题指数（LOF）</t>
+          <t>中欧创业板两年定期开放混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.94</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>96.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2753</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -622,26 +672,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>166027</t>
+          <t>515400</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧创业板两年定期开放混合A</t>
+          <t>富国中证大数据产业ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>96.82</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -650,26 +710,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009791</t>
+          <t>161628</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧创业板两年定期开放混合C</t>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>96.82</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300383-光环新网.xlsx
+++ b/数据整理/stocks/A股/创业板/300383-光环新网.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4668</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3631</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300383-光环新网.xlsx
+++ b/数据整理/stocks/A股/创业板/300383-光环新网.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -878,4 +879,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300383-光环新网.xlsx
+++ b/数据整理/stocks/A股/创业板/300383-光环新网.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -887,7 +888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,17 +899,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -918,14 +939,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.83</v>
+          <t>010762</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -934,14 +977,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>010763</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="4">
@@ -950,13 +1083,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300383-光环新网.xlsx
+++ b/数据整理/stocks/A股/创业板/300383-光环新网.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1067,14 +1110,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.83</v>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1083,14 +1148,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="5">
@@ -1099,13 +1270,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300383-光环新网.xlsx
+++ b/数据整理/stocks/A股/创业板/300383-光环新网.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,91 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>515980</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华富中证人工智能产业ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1525</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -549,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -600,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>166027</t>
+          <t>515400</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧创业板两年定期开放混合A</t>
+          <t>富国中证大数据产业ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.58</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.82</t>
+          <t>99.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1110</t>
+          <t>0.0582</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -638,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009791</t>
+          <t>560660</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧创业板两年定期开放混合C</t>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>96.82</t>
+          <t>97.21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2753</t>
+          <t>0.0506</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -676,73 +698,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>515400</t>
+          <t>516000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国中证大数据产业ETF</t>
+          <t>华夏中证大数据产业ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.90</t>
+          <t>97.61</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1190</t>
+          <t>0.0146</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161628</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>融通中证云计算与大数据主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0141</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -778,7 +762,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -808,36 +792,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>166027</t>
+          <t>010762</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧创业板两年定期开放混合A</t>
+          <t>博时恒康一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.62</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.94</t>
+          <t>20.02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4668</t>
+          <t>0.0176</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -846,36 +830,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009791</t>
+          <t>010763</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧创业板两年定期开放混合C</t>
+          <t>博时恒康一年持有期混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.94</t>
+          <t>20.02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3631</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +894,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -940,36 +924,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010762</t>
+          <t>166027</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时恒康一年持有期混合A</t>
+          <t>中欧创业板两年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>26.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.02</t>
+          <t>98.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0176</t>
+          <t>1.4668</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -978,36 +962,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010763</t>
+          <t>009791</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时恒康一年持有期混合C</t>
+          <t>中欧创业板两年定期开放混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.02</t>
+          <t>98.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.3631</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1021,7 +1005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1042,7 +1026,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1072,36 +1056,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>515400</t>
+          <t>166027</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国中证大数据产业ETF</t>
+          <t>中欧创业板两年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>24.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.33</t>
+          <t>96.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0582</t>
+          <t>1.1110</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1110,36 +1094,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>560660</t>
+          <t>009791</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+          <t>中欧创业板两年定期开放混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.21</t>
+          <t>96.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0506</t>
+          <t>0.2753</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1148,35 +1132,73 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>516000</t>
+          <t>515400</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏中证大数据产业ETF</t>
+          <t>富国中证大数据产业ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>97.61</t>
+          <t>98.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>2.51</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1191,112 +1213,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.15</v>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>